--- a/GSE107451/processed_data/ranked_ImmuneGene_List/DGRP551_female_30_vs_3_ImmuneGene_List.xlsx
+++ b/GSE107451/processed_data/ranked_ImmuneGene_List/DGRP551_female_30_vs_3_ImmuneGene_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">sig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p38a</t>
   </si>
 </sst>
 </file>
@@ -405,84 +393,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>120.643398770024</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.60844657886939</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.594607780663263</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.70505471199053</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0068293140339049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.264190163094853</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.40698354592358</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.07926769920145</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.13009519400093</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.38452615334113</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0171011324119519</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.409778950717886</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.4153586487767</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.56397767650374</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.23681887253654</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.07304216764205</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0381683554006294</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.587821287185971</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
